--- a/Detailed Design/Tracability Matrix.xlsx
+++ b/Detailed Design/Tracability Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="8595" windowHeight="7680" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="8595" windowHeight="7680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="56">
   <si>
     <t>Number</t>
   </si>
@@ -191,6 +191,10 @@
   <si>
     <t>Printer Feedback Layer 
 Dispatch</t>
+  </si>
+  <si>
+    <t>Preprocessing Layer
+Object Subsection</t>
   </si>
 </sst>
 </file>
@@ -1873,20 +1877,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F21"/>
+  <dimension ref="A2:G21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1894,19 +1898,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.1</v>
       </c>
@@ -1914,7 +1921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.2</v>
       </c>
@@ -1922,24 +1929,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.3</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3.4</v>
       </c>
@@ -1947,7 +1954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.5</v>
       </c>
@@ -1955,7 +1962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.6</v>
       </c>
@@ -1963,24 +1970,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.7</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3.8</v>
       </c>
@@ -1999,47 +2006,50 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3.9</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3.1</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3.11</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3.12</v>
       </c>
@@ -2047,7 +2057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3.13</v>
       </c>
@@ -2055,18 +2065,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3.14</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3.15</v>
       </c>
@@ -2074,24 +2084,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3.17</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8.1</v>
       </c>
@@ -2099,7 +2109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8.1999999999999993</v>
       </c>
@@ -2107,7 +2117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8.3000000000000007</v>
       </c>
@@ -2124,6 +2134,9 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2136,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
